--- a/mySystem/mySystem/xls/PTV/SOP-MFG-416-R01A 超声波焊接记录.xlsx
+++ b/mySystem/mySystem/xls/PTV/SOP-MFG-416-R01A 超声波焊接记录.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\QMS File-20160301\SOP-MFG-3 生产岗位\305，PTV生产记录20160601\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitpro\mitcpro-master\mitcpro\mySystem\mySystem\xls\PTV\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -191,6 +191,110 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>复核人：               2016年   月   日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生产日期：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2016</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>压力
+（bar）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>产品代码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>备注：
 合格品数量</t>
@@ -263,117 +367,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">            。</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>复核人：               2016年   月   日</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>生产日期：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 2016</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>压力
-（bar）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>产品代码</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -837,6 +830,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -863,9 +859,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1173,8 +1166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1233,26 +1226,26 @@
       <c r="N2" s="27"/>
     </row>
     <row r="3" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="29" t="s">
+      <c r="A3" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
     </row>
     <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1263,7 +1256,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>1</v>
@@ -1284,7 +1277,7 @@
         <v>13</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>1</v>
@@ -1423,25 +1416,25 @@
       <c r="A13" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="33"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="34"/>
       <c r="G13" s="14"/>
       <c r="H13" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="31"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="33"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="34"/>
       <c r="N13" s="15"/>
     </row>
     <row r="14" spans="1:14" customFormat="1" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="24" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
@@ -1451,13 +1444,13 @@
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
-      <c r="J14" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="36"/>
+      <c r="J14" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="37"/>
     </row>
     <row r="15" spans="1:14" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A15" s="16"/>
